--- a/AutoFirmwareUpgrade/ClassLibrary1/TestDataFiles/CablingDataSet/3U3U3I3I3I3I.xlsx
+++ b/AutoFirmwareUpgrade/ClassLibrary1/TestDataFiles/CablingDataSet/3U3U3I3I3I3I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C98E76B-C09E-4C5B-BA77-BF0144F63DDF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558DAC83-EA6E-4877-8DAD-437F09152E1A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -246,9 +246,6 @@
     <t>FEEDER5</t>
   </si>
   <si>
-    <t>Cabling 2M3U3I3I3I3I</t>
-  </si>
-  <si>
     <t>Channel_Number_DSP1</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>sn409026540_6U_12I.cal</t>
+  </si>
+  <si>
+    <t>Cabling 3U3U3I3I3I3I</t>
   </si>
 </sst>
 </file>
@@ -584,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5708A510-52A4-4E5E-8651-B430079B2986}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -596,18 +596,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
-      </c>
-      <c r="B1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
         <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -620,8 +620,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,10 +710,10 @@
         <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -1439,13 +1439,13 @@
         <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
         <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
